--- a/biology/Botanique/Douglas_Barr/Douglas_Barr.xlsx
+++ b/biology/Botanique/Douglas_Barr/Douglas_Barr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Douglas Barr, né le 1er mai 1949 à Cedar Rapids (Iowa), est un acteur, un auteur et un réalisateur américain.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il amorce sa carrière d'acteur en jouant le rôle de Buzz Dillard dans la série télévisée When the Whistle Blows (en) en 1980. La série n'a aucun succès et est annulée après une saison, mais Barr apparaît de nouveau dans plusieurs séries comme acteur invité, notamment dans La croisière s'amuse ou Hôtel.
 En 1981, il décroche le second rôle de Jim Schmidt dans le film La Ferme de la terreur (Deadly Blessing) de Wes Craven.
 Son rôle le plus connu lui est venu, entre 1981 à 1986, de la série d'ABC L'Homme qui tombe à pic (The Fall Guy), où il incarne l'apprenti cascadeur Howie Munson pendant cinq saisons. Il joue ensuite un des personnages principaux de la série Le Magicien, puis un rôle secondaire dans une dizaine d'épisodes de Femmes d'affaires et Dames de cœur  
 Il passe à la réalisation en 1994 avec le film Dead Badge, dont il signe aussi le scénario, puis tourne 14 épisodes de la série télévisée Les Jumelles de Sweet Valley, avant de réaliser de nombreux téléfilms, dont, en 1997, Chaleur meurtrière (Ed McBain's 87th Precinct: Heatwave), qui met en scène les personnages du 87e District d’Ed McBain.
 Il a également donné une dizaine de scénarios pour le cinéma et la télévision, notamment ceux des téléfilms Un bébé devant ma porte (Taking a Chance on Love) (2009), Le Trésor secret de la montagne (Secrets of the Mountain) (2010) et Notes from the Heart Healer (2013), dont il a aussi assumé la réalisation. 
-Depuis le début des années 1990, il co-dirige avec Bruce Orosz une exploitation viti-vinicole de la Napa Valley, en Californie[1].
+Depuis le début des années 1990, il co-dirige avec Bruce Orosz une exploitation viti-vinicole de la Napa Valley, en Californie.
 </t>
         </is>
       </c>
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acteur
-1980 : When the Whistle Blows, série télévisée - 9 épisodes : Buzz Dillard
+          <t>Acteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1980 : When the Whistle Blows, série télévisée - 9 épisodes : Buzz Dillard
 1980 : Les Secrets de l'invisible (The Unseen) : Tony Ross
 1980 : L'Île fantastique (Fantasy Island) - La Femme invisible / Duo sur trapèze (Snow Bird / The Invisible Woman), épisode 7, saison 4 : Ned Pringle
 1981 :  La Ferme de la terreur (Deadly Blessing) : Jim Schmidt
@@ -570,9 +589,43 @@
 1991 : Arabesque (Murder, She Wrote) - Ultime Correspondance (Terminal Connection), saison 8, épisode 7 : Greg Franklin
 1992 : Business Woman (Lady Boss) de Charles Jarrott : Jerry Masterson
 1994 : Waikiki Ouest (One West Waikiki) - Trafic de filles ('Til Death Do Us Part), épisode 1, saison 1 : Tom Haber
-1994 : Escale en enfer (Temptation) de Strathford Hamilton : Captain Thomas
-Réalisateur
-1994 : Dead Badge
+1994 : Escale en enfer (Temptation) de Strathford Hamilton : Captain Thomas</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Douglas_Barr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Douglas_Barr</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Réalisateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1994 : Dead Badge
 1994 - 1996 : Les Jumelles de Sweet Valley (Sweet Valley High) - 14 épisodes
 1996 : Colère froide (Conundrum) (TV)
 1997 : Chaleur meurtrière (Ed McBain's 87th Precinct: Heatwave) (TV)
@@ -590,9 +643,43 @@
 2013 : La Croisière mystère (The Mystery Cruise) (TV)
 2014 : Northpole (TV)
 2015 : Northpole: Open for Christmas (TV)
-2017 : Les mystères d'Emma Fielding: Le trésor oublié (TV)
-Scénariste
-1986 : Le Magicien (The Wizard) - Il faut le voir pour le croire (Seeing Is Believing), épisode 4, saison 1
+2017 : Les mystères d'Emma Fielding: Le trésor oublié (TV)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Douglas_Barr</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Douglas_Barr</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Scénariste</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1986 : Le Magicien (The Wizard) - Il faut le voir pour le croire (Seeing Is Believing), épisode 4, saison 1
 1993 : Fade to Black (TV)
 1993 : The Cover Girl Murders (TV)
 1994 : Dead Badge
